--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368911.4537759831</v>
+        <v>-371259.6026591739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5860219.813005074</v>
+        <v>5860219.813005079</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13570528.23030807</v>
+        <v>13570528.23030808</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>340.9020622344883</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>84.62003362579638</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>101.717706569126</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>57.74455817980835</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>113.1460968518026</v>
       </c>
       <c r="G5" t="n">
-        <v>331.8935910733406</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>34.08346683966615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>134.5008081158276</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>233.409676606964</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>66.9789447792819</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>38.96115854196099</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02800318540977</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>91.93595037119255</v>
       </c>
       <c r="I12" t="n">
-        <v>17.03013564767498</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986292</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5602830177929</v>
+        <v>12.00894366373558</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06186232216683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>74.05533353200396</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02800318540977</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>91.93595037119255</v>
       </c>
       <c r="I15" t="n">
-        <v>17.03013564767498</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9.742117619115248</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>102.4585828702528</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>182.0073054842639</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I18" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.2288547737337</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06186232216687</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4165116571834</v>
+        <v>6.188425946975656</v>
       </c>
       <c r="U19" t="n">
         <v>286.2229134700513</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>35.55557114649559</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I21" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>50.95374272557522</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U22" t="n">
         <v>286.2229134700513</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>160.8223929591579</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I24" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767497</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.7381308224969393</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>79.94338643926855</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U25" t="n">
         <v>286.2229134700513</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.4746605491555</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>274.8653145311813</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>126.5660981224319</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991738</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249703</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>152.6250124446337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279743</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433877</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572831</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124564</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145487</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279767</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433877</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572831</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145485</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704426</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279767</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433877</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572831</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1663.420136195577</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>1294.457619255165</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>936.1919206484147</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>550.4036680501704</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>139.4177632605628</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y2" t="n">
-        <v>2050.019976259699</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>112.2708183656254</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1185.963190797449</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>1185.963190797449</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>1185.963190797449</v>
+        <v>586.1957766411701</v>
       </c>
       <c r="E5" t="n">
-        <v>800.1749381992049</v>
+        <v>586.1957766411701</v>
       </c>
       <c r="F5" t="n">
-        <v>389.1890334095974</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1576.102522773261</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1185.963190797449</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4656,31 +4656,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>693.7012399239431</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>693.7012399239431</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>693.7012399239431</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U7" t="n">
-        <v>404.5276295785111</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>404.5276295785111</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5276295785111</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274026</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2561.289688881023</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2342.655021853086</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>2342.655021853086</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988821</v>
+        <v>2342.655021853086</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.141365880777</v>
+        <v>2342.655021853086</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243.4143268306406</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C10" t="n">
-        <v>243.4143268306406</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D10" t="n">
-        <v>93.29768741830483</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E10" t="n">
-        <v>93.29768741830483</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="F10" t="n">
-        <v>93.29768741830483</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="G10" t="n">
-        <v>93.29768741830483</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>93.29768741830483</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>243.4143268306406</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>243.4143268306406</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2397.702401960704</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D11" t="n">
         <v>1670.474186413542</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.685933815297</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F11" t="n">
-        <v>873.7000290256899</v>
+        <v>873.7000290256904</v>
       </c>
       <c r="G11" t="n">
-        <v>458.170349199944</v>
+        <v>458.1703491999443</v>
       </c>
       <c r="H11" t="n">
-        <v>155.9041454432205</v>
+        <v>155.9041454432208</v>
       </c>
       <c r="I11" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5301382692641</v>
+        <v>247.1244892489112</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.249552116585</v>
+        <v>844.843903096232</v>
       </c>
       <c r="L11" t="n">
-        <v>1392.565364097497</v>
+        <v>1638.644317482091</v>
       </c>
       <c r="M11" t="n">
-        <v>2292.42781954009</v>
+        <v>2538.506772924684</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.610476521519</v>
+        <v>3005.324490959894</v>
       </c>
       <c r="O11" t="n">
-        <v>3659.070128472831</v>
+        <v>3809.784142911206</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.983446673908</v>
+        <v>4458.697461112283</v>
       </c>
       <c r="Q11" t="n">
         <v>4718.068564222578</v>
@@ -5084,7 +5084,7 @@
         <v>3174.441574000637</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.302242024826</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3040569304508</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8504787502428</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L12" t="n">
-        <v>681.4878096000707</v>
+        <v>943.3083942425237</v>
       </c>
       <c r="M12" t="n">
-        <v>1444.200399947359</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N12" t="n">
-        <v>1855.362972310685</v>
+        <v>1740.994759395723</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.276603695803</v>
+        <v>2094.908390780841</v>
       </c>
       <c r="P12" t="n">
         <v>2473.990428215981</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.1764531389011</v>
+        <v>574.3529157645323</v>
       </c>
       <c r="C13" t="n">
-        <v>689.2402702109943</v>
+        <v>405.416732836624</v>
       </c>
       <c r="D13" t="n">
-        <v>539.1236307986585</v>
+        <v>255.3000934242883</v>
       </c>
       <c r="E13" t="n">
-        <v>391.2105372162654</v>
+        <v>255.3000934242883</v>
       </c>
       <c r="F13" t="n">
-        <v>244.320589718355</v>
+        <v>108.4101459263779</v>
       </c>
       <c r="G13" t="n">
-        <v>244.320589718355</v>
+        <v>108.4101459263779</v>
       </c>
       <c r="H13" t="n">
         <v>96.27989980139252</v>
@@ -5197,52 +5197,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J13" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8234703720054</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4976645070656</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1445306290202</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N13" t="n">
         <v>1217.791969496554</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.004386470092</v>
+        <v>1697.004386470093</v>
       </c>
       <c r="Q13" t="n">
         <v>1757.78232960004</v>
       </c>
       <c r="R13" t="n">
-        <v>1658.729943416033</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S13" t="n">
-        <v>1658.729943416033</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T13" t="n">
-        <v>1658.729943416033</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="U13" t="n">
-        <v>1658.729943416033</v>
+        <v>1273.40810152975</v>
       </c>
       <c r="V13" t="n">
-        <v>1404.045455210146</v>
+        <v>1273.40810152975</v>
       </c>
       <c r="W13" t="n">
-        <v>1114.628285173185</v>
+        <v>983.9909314927895</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.824917969141</v>
+        <v>756.0013805947721</v>
       </c>
       <c r="Y13" t="n">
-        <v>1039.824917969141</v>
+        <v>756.0013805947721</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>873.7000290256901</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1703491999439</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H14" t="n">
         <v>155.9041454432206</v>
@@ -5276,22 +5276,22 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J14" t="n">
-        <v>257.2688371599997</v>
+        <v>414.5301382692642</v>
       </c>
       <c r="K14" t="n">
-        <v>854.9882510073203</v>
+        <v>913.3997093676692</v>
       </c>
       <c r="L14" t="n">
-        <v>1648.788665393179</v>
+        <v>1707.200123753528</v>
       </c>
       <c r="M14" t="n">
-        <v>2548.651120835772</v>
+        <v>2607.062579196122</v>
       </c>
       <c r="N14" t="n">
-        <v>3448.442294038846</v>
+        <v>3506.853752399195</v>
       </c>
       <c r="O14" t="n">
-        <v>4252.901945990157</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P14" t="n">
         <v>4583.234543101466</v>
@@ -5355,22 +5355,22 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3040569304508</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7611353541201</v>
+        <v>366.8504787502429</v>
       </c>
       <c r="L15" t="n">
-        <v>742.398466203948</v>
+        <v>681.4878096000709</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.92225899382</v>
+        <v>1068.011602389943</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.084831357147</v>
+        <v>1479.17417475327</v>
       </c>
       <c r="O15" t="n">
-        <v>1893.998462742265</v>
+        <v>2209.276603695802</v>
       </c>
       <c r="P15" t="n">
         <v>2473.990428215981</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>813.7568776072684</v>
+        <v>675.5567105378971</v>
       </c>
       <c r="C16" t="n">
-        <v>644.8206946793615</v>
+        <v>506.6205276099902</v>
       </c>
       <c r="D16" t="n">
-        <v>494.7040552670258</v>
+        <v>356.5038881976545</v>
       </c>
       <c r="E16" t="n">
-        <v>494.7040552670258</v>
+        <v>346.6633653500633</v>
       </c>
       <c r="F16" t="n">
-        <v>347.8141077691154</v>
+        <v>199.773417852153</v>
       </c>
       <c r="G16" t="n">
-        <v>347.8141077691154</v>
+        <v>199.773417852153</v>
       </c>
       <c r="H16" t="n">
-        <v>199.7734178521529</v>
+        <v>199.773417852153</v>
       </c>
       <c r="I16" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J16" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8234703720053</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4976645070653</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M16" t="n">
-        <v>907.14453062902</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P16" t="n">
         <v>1697.004386470092</v>
       </c>
       <c r="Q16" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R16" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S16" t="n">
-        <v>1757.782329600039</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T16" t="n">
-        <v>1757.782329600039</v>
+        <v>1339.879214472041</v>
       </c>
       <c r="U16" t="n">
-        <v>1468.668275589887</v>
+        <v>1339.879214472041</v>
       </c>
       <c r="V16" t="n">
-        <v>1468.668275589887</v>
+        <v>1085.194726266154</v>
       </c>
       <c r="W16" t="n">
-        <v>1179.251105552926</v>
+        <v>1085.194726266154</v>
       </c>
       <c r="X16" t="n">
-        <v>995.4053424375081</v>
+        <v>857.2051753681368</v>
       </c>
       <c r="Y16" t="n">
-        <v>995.4053424375081</v>
+        <v>857.2051753681368</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C17" t="n">
         <v>2028.739885020292</v>
@@ -5498,37 +5498,37 @@
         <v>1670.474186413542</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815297</v>
       </c>
       <c r="F17" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256899</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I17" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1244892489108</v>
+        <v>414.5301382692642</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8439030962311</v>
+        <v>1012.249552116585</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.644317482089</v>
+        <v>1775.226342461315</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.506772924682</v>
+        <v>2230.070399746004</v>
       </c>
       <c r="N17" t="n">
-        <v>3438.297946127755</v>
+        <v>3129.861572949078</v>
       </c>
       <c r="O17" t="n">
-        <v>4242.757598079067</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P17" t="n">
         <v>4583.234543101466</v>
@@ -5543,7 +5543,7 @@
         <v>4693.285200474678</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U17" t="n">
         <v>4231.738874875402</v>
@@ -5558,7 +5558,7 @@
         <v>3174.441574000637</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I18" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3040569304507</v>
+        <v>292.1341819174556</v>
       </c>
       <c r="K18" t="n">
-        <v>366.8504787502424</v>
+        <v>535.0627614491661</v>
       </c>
       <c r="L18" t="n">
-        <v>681.48780960007</v>
+        <v>849.7000922989942</v>
       </c>
       <c r="M18" t="n">
-        <v>1068.011602389942</v>
+        <v>1236.223885088867</v>
       </c>
       <c r="N18" t="n">
-        <v>1855.362972310685</v>
+        <v>1647.386457452193</v>
       </c>
       <c r="O18" t="n">
-        <v>2209.276603695803</v>
+        <v>2001.300088837311</v>
       </c>
       <c r="P18" t="n">
-        <v>2473.990428215981</v>
+        <v>2266.01391335749</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.025413179288</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>433.1240168441819</v>
+        <v>1026.084387253783</v>
       </c>
       <c r="C19" t="n">
-        <v>264.1878339162751</v>
+        <v>857.1482043258766</v>
       </c>
       <c r="D19" t="n">
-        <v>264.1878339162751</v>
+        <v>707.0315649135408</v>
       </c>
       <c r="E19" t="n">
-        <v>264.1878339162751</v>
+        <v>559.1184713311477</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1878339162751</v>
+        <v>412.2285238332373</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27989980139252</v>
+        <v>244.320589718355</v>
       </c>
       <c r="H19" t="n">
         <v>96.27989980139252</v>
@@ -5671,52 +5671,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J19" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070656</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290166</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.79196949655</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521201</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470089</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="R19" t="n">
-        <v>1658.729943416032</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="S19" t="n">
-        <v>1463.469769355895</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="T19" t="n">
-        <v>1240.826828288033</v>
+        <v>1751.531394300063</v>
       </c>
       <c r="U19" t="n">
-        <v>951.7127742778798</v>
+        <v>1462.41734028991</v>
       </c>
       <c r="V19" t="n">
-        <v>697.028286071993</v>
+        <v>1207.732852084023</v>
       </c>
       <c r="W19" t="n">
-        <v>661.1135677421993</v>
+        <v>1207.732852084023</v>
       </c>
       <c r="X19" t="n">
-        <v>433.1240168441819</v>
+        <v>1207.732852084023</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.1240168441819</v>
+        <v>1207.732852084023</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.702401960704</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C20" t="n">
         <v>2028.739885020292</v>
@@ -5738,34 +5738,34 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F20" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256899</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1703491999443</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432205</v>
       </c>
       <c r="I20" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1244892489108</v>
+        <v>414.5301382692642</v>
       </c>
       <c r="K20" t="n">
-        <v>844.8439030962311</v>
+        <v>1012.249552116585</v>
       </c>
       <c r="L20" t="n">
-        <v>1638.644317482089</v>
+        <v>1806.049966502444</v>
       </c>
       <c r="M20" t="n">
-        <v>2538.506772924682</v>
+        <v>2548.651120835772</v>
       </c>
       <c r="N20" t="n">
-        <v>3129.861572949078</v>
+        <v>3448.442294038845</v>
       </c>
       <c r="O20" t="n">
-        <v>3934.32122490039</v>
+        <v>4252.901945990157</v>
       </c>
       <c r="P20" t="n">
         <v>4583.234543101466</v>
@@ -5777,25 +5777,25 @@
         <v>4813.994990069626</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305929975226</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.738874875403</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.675987531832</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.907332261718</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.441574000638</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.302242024826</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H21" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I21" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K21" t="n">
-        <v>535.0627614491688</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L21" t="n">
-        <v>849.7000922989964</v>
+        <v>1027.638476590005</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.223885088868</v>
+        <v>1414.162269379877</v>
       </c>
       <c r="N21" t="n">
-        <v>1647.386457452195</v>
+        <v>1825.324841743204</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.300088837312</v>
+        <v>2179.238473128322</v>
       </c>
       <c r="P21" t="n">
-        <v>2266.013913357491</v>
+        <v>2443.952297648501</v>
       </c>
       <c r="Q21" t="n">
-        <v>2601.025413179288</v>
+        <v>2570.987282611808</v>
       </c>
       <c r="R21" t="n">
         <v>2601.025413179288</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>541.327176628601</v>
+        <v>516.622694362453</v>
       </c>
       <c r="C22" t="n">
-        <v>541.327176628601</v>
+        <v>347.6865114345461</v>
       </c>
       <c r="D22" t="n">
-        <v>391.2105372162653</v>
+        <v>347.6865114345461</v>
       </c>
       <c r="E22" t="n">
-        <v>391.2105372162653</v>
+        <v>199.773417852153</v>
       </c>
       <c r="F22" t="n">
-        <v>244.320589718355</v>
+        <v>199.773417852153</v>
       </c>
       <c r="G22" t="n">
-        <v>244.320589718355</v>
+        <v>199.773417852153</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27989980139252</v>
+        <v>199.773417852153</v>
       </c>
       <c r="I22" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1906975445495</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8234703720051</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070657</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S22" t="n">
-        <v>1757.782329600039</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T22" t="n">
-        <v>1757.782329600039</v>
+        <v>1339.879214472041</v>
       </c>
       <c r="U22" t="n">
-        <v>1468.668275589886</v>
+        <v>1050.765160461888</v>
       </c>
       <c r="V22" t="n">
-        <v>1213.983787383999</v>
+        <v>796.0806722560013</v>
       </c>
       <c r="W22" t="n">
-        <v>924.5666173470382</v>
+        <v>796.0806722560013</v>
       </c>
       <c r="X22" t="n">
-        <v>762.1197557721312</v>
+        <v>568.091121357984</v>
       </c>
       <c r="Y22" t="n">
-        <v>541.327176628601</v>
+        <v>568.091121357984</v>
       </c>
     </row>
     <row r="23">
@@ -5972,61 +5972,61 @@
         <v>1670.474186413542</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815297</v>
       </c>
       <c r="F23" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256899</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1703491999443</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H23" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432205</v>
       </c>
       <c r="I23" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489112</v>
       </c>
       <c r="K23" t="n">
-        <v>536.4075299175543</v>
+        <v>844.843903096232</v>
       </c>
       <c r="L23" t="n">
-        <v>1330.207944303413</v>
+        <v>1638.644317482091</v>
       </c>
       <c r="M23" t="n">
-        <v>2230.070399746005</v>
+        <v>2230.070399746003</v>
       </c>
       <c r="N23" t="n">
-        <v>3129.861572949078</v>
+        <v>3129.861572949077</v>
       </c>
       <c r="O23" t="n">
-        <v>3934.32122490039</v>
+        <v>3934.321224900389</v>
       </c>
       <c r="P23" t="n">
         <v>4583.234543101466</v>
       </c>
       <c r="Q23" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.12781989683</v>
       </c>
       <c r="R23" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069625</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.305929975226</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.738874875403</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V23" t="n">
         <v>3900.675987531832</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.907332261718</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X23" t="n">
         <v>3174.441574000638</v>
@@ -6060,31 +6060,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H24" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I24" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304509</v>
       </c>
       <c r="K24" t="n">
-        <v>535.0627614491688</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L24" t="n">
-        <v>849.7000922989964</v>
+        <v>943.3083942425237</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.223885088868</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.386457452195</v>
+        <v>1740.994759395723</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.300088837312</v>
+        <v>2094.908390780841</v>
       </c>
       <c r="P24" t="n">
-        <v>2266.013913357491</v>
+        <v>2359.62221530102</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025413179288</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.773417852153</v>
+        <v>97.02548649078346</v>
       </c>
       <c r="C25" t="n">
-        <v>199.773417852153</v>
+        <v>97.02548649078346</v>
       </c>
       <c r="D25" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="E25" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="F25" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G25" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H25" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="I25" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J25" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L25" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070658</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290204</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R25" t="n">
-        <v>1677.031434206838</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S25" t="n">
-        <v>1481.771260146701</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T25" t="n">
-        <v>1481.771260146701</v>
+        <v>1339.879214472041</v>
       </c>
       <c r="U25" t="n">
-        <v>1192.657206136548</v>
+        <v>1050.765160461888</v>
       </c>
       <c r="V25" t="n">
-        <v>937.9727179306611</v>
+        <v>796.0806722560011</v>
       </c>
       <c r="W25" t="n">
-        <v>648.5555478937005</v>
+        <v>506.6635022190405</v>
       </c>
       <c r="X25" t="n">
-        <v>420.5659969956831</v>
+        <v>278.6739513210232</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.773417852153</v>
+        <v>278.6739513210232</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192.8867116300489</v>
+        <v>211.1920047000668</v>
       </c>
       <c r="C28" t="n">
-        <v>192.8867116300489</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D28" t="n">
-        <v>192.8867116300489</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E28" t="n">
-        <v>192.8867116300489</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300489</v>
+        <v>211.1920047000666</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431757</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W28" t="n">
-        <v>823.3173065018361</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X28" t="n">
-        <v>595.3277556038188</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y28" t="n">
-        <v>374.5351764602887</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689402</v>
+        <v>432.2000540015825</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410333</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286976</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463046</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1828.498922546691</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U31" t="n">
-        <v>1883.949150983575</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.264662777688</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740727</v>
+        <v>1062.63064887337</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>834.6410979753523</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991799</v>
+        <v>613.8485188318222</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M32" t="n">
-        <v>2215.249704195857</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>2762.028521254639</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3641.993171584094</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>855.6340846510825</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>686.6979017231756</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>536.58126231084</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>388.6681687284467</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305365</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305365</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.6836668953299</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1802.1767868677</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1802.1767868677</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1802.1767868677</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1547.492298661813</v>
+        <v>999.1036114208118</v>
       </c>
       <c r="W34" t="n">
-        <v>1258.075128624852</v>
+        <v>709.6864413838513</v>
       </c>
       <c r="X34" t="n">
-        <v>1258.075128624852</v>
+        <v>481.6968904858339</v>
       </c>
       <c r="Y34" t="n">
-        <v>1037.282549481322</v>
+        <v>260.9043113423039</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7005,19 +7005,19 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7026,7 +7026,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215036</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416699</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774074</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490193</v>
       </c>
       <c r="L37" t="n">
         <v>800.746804049922</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.322996860148</v>
       </c>
       <c r="O37" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.157981032968</v>
       </c>
       <c r="P37" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719034</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122055</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195772</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937958</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849071</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899127</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036701</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143015</v>
@@ -7160,64 +7160,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N40" t="n">
         <v>1579.322996860149</v>
@@ -7348,34 +7348,34 @@
         <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719034</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849071</v>
       </c>
       <c r="X40" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036724</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7388,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846822</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518746</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232733</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,31 +7509,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160449</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
@@ -7585,16 +7585,16 @@
         <v>1925.157981032969</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719036</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829559</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,16 +7603,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036724</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>351.3014367967937</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K44" t="n">
-        <v>685.12081048664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1549.639626139995</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.189928969823</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3507.94220119647</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075807</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>96.32822115779692</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>60.07861243932305</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>379.9886844014299</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>115.5234473888497</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.18012378356332</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.24681607180679</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>224.2970865621589</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8939,10 +8939,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>61.52591576149234</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>379.988684401428</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.18012378356332</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>386.5262407715321</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>10.24681607180889</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>43.82036132517021</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>379.9886844014314</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,16 +9407,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>290.6637343925642</v>
       </c>
       <c r="N20" t="n">
-        <v>125.7950323123103</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9113966655822</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>85.18190136109189</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.1801237835634</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>12.5935204714911</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>137.9616413931542</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.9113966655822</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5234473888498</v>
       </c>
       <c r="R24" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356329</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>160.3329896347523</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476847</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>29.61882225791908</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-1.428190898877801e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>67.53663776704428</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.2288547737337</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5513393540573</v>
       </c>
       <c r="I13" t="n">
         <v>102.4585828702528</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3075723195359</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>151.6543218570332</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>136.6918450274539</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.2288547737337</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06186232216683</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S16" t="n">
-        <v>193.3075723195359</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>43.70234990477326</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>214.2280857102077</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>250.9674271900954</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>128.8782374563621</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.2288547737337</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06186232216687</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S22" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>64.88726242987926</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8773421957154</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>166.2288547737337</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5602830177929</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.11847588289832</v>
+        <v>98.0618623221668</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987274</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>11.6576838054097</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,13 +24886,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>63.20292720901003</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356955</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696696</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>37.1440128868082</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.394529019511538e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.067679361061892e-12</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1149488.98751217</v>
+        <v>1149488.987512169</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1149488.98751217</v>
+        <v>1149488.987512169</v>
       </c>
     </row>
     <row r="10">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058923</v>
@@ -26323,37 +26323,37 @@
         <v>256395.3626055529</v>
       </c>
       <c r="F2" t="n">
+        <v>256395.3626055529</v>
+      </c>
+      <c r="G2" t="n">
         <v>256395.362605553</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>256395.3626055529</v>
-      </c>
-      <c r="H2" t="n">
-        <v>256395.362605553</v>
       </c>
       <c r="I2" t="n">
         <v>256395.3626055529</v>
       </c>
       <c r="J2" t="n">
-        <v>258103.1614765392</v>
+        <v>258103.161476539</v>
       </c>
       <c r="K2" t="n">
         <v>258103.1614765391</v>
       </c>
       <c r="L2" t="n">
-        <v>258103.1614765391</v>
+        <v>258103.1614765392</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639598.3910328823</v>
+        <v>639598.3910328825</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257371.5071467813</v>
+        <v>257371.5071467806</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169461.7256516757</v>
+        <v>169461.7256516755</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26084.25031398453</v>
+        <v>26084.25031398448</v>
       </c>
       <c r="F4" t="n">
-        <v>26084.25031398454</v>
+        <v>26084.25031398451</v>
       </c>
       <c r="G4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.2503139845</v>
       </c>
       <c r="H4" t="n">
-        <v>26084.25031398456</v>
+        <v>26084.25031398451</v>
       </c>
       <c r="I4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.25031398451</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
         <v>33605.65329740894</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740897</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94475.20814694399</v>
+        <v>94475.208146944</v>
       </c>
       <c r="F5" t="n">
-        <v>94475.20814694399</v>
+        <v>94475.208146944</v>
       </c>
       <c r="G5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="H5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="I5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.208146944</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-589337.0689291896</v>
+        <v>-589337.0689291898</v>
       </c>
       <c r="C6" t="n">
-        <v>630.8102853546152</v>
+        <v>630.810285354848</v>
       </c>
       <c r="D6" t="n">
-        <v>630.8102853548189</v>
+        <v>630.8102853549062</v>
       </c>
       <c r="E6" t="n">
-        <v>-503762.4868882578</v>
+        <v>-503842.8192928761</v>
       </c>
       <c r="F6" t="n">
-        <v>135835.9041446245</v>
+        <v>135755.5717400064</v>
       </c>
       <c r="G6" t="n">
-        <v>135835.9041446248</v>
+        <v>135755.5717400065</v>
       </c>
       <c r="H6" t="n">
-        <v>135835.9041446245</v>
+        <v>135755.5717400063</v>
       </c>
       <c r="I6" t="n">
-        <v>135835.9041446244</v>
+        <v>135755.5717400064</v>
       </c>
       <c r="J6" t="n">
-        <v>-113800.3562431457</v>
+        <v>-113867.551733371</v>
       </c>
       <c r="K6" t="n">
-        <v>143571.1509036355</v>
+        <v>143503.9554134097</v>
       </c>
       <c r="L6" t="n">
-        <v>143571.1509036355</v>
+        <v>143503.9554134098</v>
       </c>
       <c r="M6" t="n">
-        <v>-36561.47475729445</v>
+        <v>-36561.47475729429</v>
       </c>
       <c r="N6" t="n">
-        <v>132900.2508943812</v>
+        <v>132900.250894381</v>
       </c>
       <c r="O6" t="n">
-        <v>132900.2508943812</v>
+        <v>132900.2508943808</v>
       </c>
       <c r="P6" t="n">
-        <v>132900.2508943811</v>
+        <v>132900.2508943809</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1781788020953</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1781788020953</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020957</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1203.498747517406</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.4345145850087</v>
+        <v>599.4345145850091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.5985217912036</v>
+        <v>112.5985217912026</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2114747628509</v>
+        <v>529.2114747628508</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628514</v>
+        <v>529.2114747628508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628509</v>
+        <v>529.2114747628508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>41.83177942899226</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>329.1641363949986</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>65.52911452950185</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>77.22106361252987</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>293.7299488899088</v>
       </c>
       <c r="G5" t="n">
-        <v>81.8905789474544</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>112.5817251404917</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>62.4574906899478</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.91490469314394</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>115.8312921104491</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>100.330857479769</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.00446325037726</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-7.032208304403592e-13</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859248</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859248</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928354487646611</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23126039661087</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4141766958969</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K11" t="n">
-        <v>499.701422157978</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9238008092932</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7846749289786</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9461121170045</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O11" t="n">
-        <v>661.8835371804685</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9022857666927</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2180906778483</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7644975846317</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51737788724725</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19637176967305</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142683590117288</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101854950630922</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H12" t="n">
-        <v>20.29949386530391</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I12" t="n">
-        <v>72.3664972037401</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5791995243013</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4034812165731</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3698654867711</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5621074471419</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N12" t="n">
-        <v>546.657441743259</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0847609950685</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3621089498644</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.2999407156244</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R12" t="n">
-        <v>130.4993801804006</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04103384176293</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471950436972881</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382799309625607</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>15.66688948964672</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99189205700544</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7268381162422</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9798678054011</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2210383128611</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6531194061587</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O13" t="n">
-        <v>249.0683003936882</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1209588652962</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q13" t="n">
         <v>147.5539049991164</v>
       </c>
       <c r="R13" t="n">
-        <v>79.23152905500265</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S13" t="n">
-        <v>30.70902571743633</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529077771098109</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611588643955046</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928354487646611</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23126039661087</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4141766958969</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K14" t="n">
-        <v>499.701422157978</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9238008092932</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7846749289786</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9461121170045</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O14" t="n">
-        <v>661.8835371804685</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9022857666927</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2180906778483</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7644975846317</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51737788724725</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19637176967305</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142683590117288</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101854950630922</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H15" t="n">
-        <v>20.29949386530391</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I15" t="n">
-        <v>72.3664972037401</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5791995243013</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4034812165731</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3698654867711</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5621074471419</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N15" t="n">
-        <v>546.657441743259</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0847609950685</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3621089498644</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.2999407156244</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R15" t="n">
-        <v>130.4993801804006</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04103384176293</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471950436972881</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382799309625607</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>15.66688948964672</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99189205700544</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7268381162422</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9798678054011</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2210383128611</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6531194061587</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O16" t="n">
-        <v>249.0683003936882</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1209588652962</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q16" t="n">
         <v>147.5539049991164</v>
       </c>
       <c r="R16" t="n">
-        <v>79.23152905500265</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S16" t="n">
-        <v>30.70902571743633</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529077771098109</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611588643955046</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4141766958967</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H18" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R18" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L19" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S19" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4141766958967</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H21" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R21" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L22" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S22" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646613</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661089</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849962</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4141766958967</v>
+        <v>333.414176695897</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579782</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092934</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289788</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170048</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804687</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666929</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778485</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846318</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724728</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967306</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630923</v>
       </c>
       <c r="H24" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530392</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36649720374005</v>
+        <v>72.36649720374011</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243014</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165732</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867712</v>
       </c>
       <c r="M24" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447142</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6574417432587</v>
+        <v>546.6574417432591</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950687</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498646</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156245</v>
       </c>
       <c r="R24" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804007</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176295</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972882</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625608</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700546</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162423</v>
       </c>
       <c r="L25" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128612</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061588</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936883</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652963</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500268</v>
       </c>
       <c r="S25" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743634</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098112</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.4648873412844</v>
+        <v>152.3682721692107</v>
       </c>
       <c r="K11" t="n">
-        <v>603.7569836841622</v>
+        <v>603.7569836841624</v>
       </c>
       <c r="L11" t="n">
-        <v>384.157385839306</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M11" t="n">
-        <v>908.9519751945384</v>
+        <v>908.9519751945386</v>
       </c>
       <c r="N11" t="n">
-        <v>567.8612696782105</v>
+        <v>471.5330485204138</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5855070215271</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P11" t="n">
-        <v>655.4679981829058</v>
+        <v>655.4679981829061</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2273914633035</v>
+        <v>261.991013242722</v>
       </c>
       <c r="R11" t="n">
-        <v>96.89537964348199</v>
+        <v>96.89537964348207</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74157285763462</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K12" t="n">
-        <v>201.5620422422141</v>
+        <v>466.0272792547928</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8154857068969</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M12" t="n">
-        <v>770.4167579265535</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3157296599258</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4885165506241</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3877015355342</v>
+        <v>382.911148924384</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3181666296029</v>
+        <v>128.318166629603</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22302802339107</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5698930657172</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8049152747017</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7852917853872</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O13" t="n">
         <v>273.6534283077279</v>
       </c>
       <c r="P13" t="n">
-        <v>210.3995181301897</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.391861747422</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.6150882410174</v>
+        <v>321.4648873412845</v>
       </c>
       <c r="K14" t="n">
-        <v>603.7569836841622</v>
+        <v>503.9086576751566</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8186003897564</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9519751945384</v>
+        <v>908.9519751945386</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8799729323978</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5855070215271</v>
+        <v>431.7853257587819</v>
       </c>
       <c r="P14" t="n">
-        <v>333.6692900114231</v>
+        <v>655.4679981829061</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9124008033988</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R14" t="n">
-        <v>31.17895977049955</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74157285763462</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K15" t="n">
-        <v>263.0879580037064</v>
+        <v>201.5620422422142</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8154857068969</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4280735251236</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3157296599258</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4885165506241</v>
+        <v>737.4772009520523</v>
       </c>
       <c r="P15" t="n">
-        <v>585.8504701754714</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.3181666296029</v>
+        <v>128.318166629603</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22302802339107</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5698930657172</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8049152747017</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7852917853872</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O16" t="n">
         <v>273.6534283077279</v>
       </c>
       <c r="P16" t="n">
-        <v>210.3995181301897</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.391861747422</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3682721692104</v>
+        <v>321.4648873412845</v>
       </c>
       <c r="K17" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841624</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8186003897559</v>
+        <v>770.6836266108382</v>
       </c>
       <c r="M17" t="n">
-        <v>908.9519751945379</v>
+        <v>459.4384417017061</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8799729323974</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P17" t="n">
-        <v>343.9161060832317</v>
+        <v>655.4679981829061</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9124008033986</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R17" t="n">
-        <v>31.1789597704994</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74157285763451</v>
+        <v>197.8326081980435</v>
       </c>
       <c r="K18" t="n">
-        <v>201.5620422422139</v>
+        <v>245.3824035673844</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N18" t="n">
-        <v>795.3044140613569</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.3181666296027</v>
+        <v>338.3954543654521</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152746979</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P19" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3682721692104</v>
+        <v>321.4648873412845</v>
       </c>
       <c r="K20" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841624</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M20" t="n">
-        <v>908.9519751945379</v>
+        <v>750.1021760942702</v>
       </c>
       <c r="N20" t="n">
-        <v>597.3280808327236</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P20" t="n">
-        <v>655.4679981829054</v>
+        <v>333.6692900114234</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9124008033986</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R20" t="n">
-        <v>31.1789597704994</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74157285763451</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K21" t="n">
-        <v>371.4734389077961</v>
+        <v>466.0272792547928</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8154857068967</v>
+        <v>402.9973870679889</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P21" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.3954543654518</v>
+        <v>128.318166629603</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>30.34154602775753</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P22" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3682721692104</v>
+        <v>152.3682721692107</v>
       </c>
       <c r="K23" t="n">
-        <v>292.2050915844883</v>
+        <v>603.7569836841624</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897566</v>
       </c>
       <c r="M23" t="n">
-        <v>908.9519751945379</v>
+        <v>597.4000830948603</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8799729323974</v>
+        <v>908.879972932398</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215273</v>
       </c>
       <c r="P23" t="n">
-        <v>655.4679981829054</v>
+        <v>655.4679981829061</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9124008033986</v>
+        <v>201.912400803399</v>
       </c>
       <c r="R23" t="n">
-        <v>31.1789597704994</v>
+        <v>31.17895977049963</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74157285763451</v>
+        <v>71.74157285763468</v>
       </c>
       <c r="K24" t="n">
-        <v>371.4734389077961</v>
+        <v>466.0272792547928</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068971</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251237</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599259</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506243</v>
       </c>
       <c r="P24" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355343</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.3954543654518</v>
+        <v>243.8416140184527</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339111</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747018</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P25" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301898</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742206</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36604,10 +36604,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>559.0949758541242</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359038</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165867</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597766</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
@@ -37719,7 +37719,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>485.2089366502515</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>258.3236387357568</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597766</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
